--- a/Resultados/dano_porcentaje_5.xlsx
+++ b/Resultados/dano_porcentaje_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="1">
   <si>
     <t>Porcentaje_de_Daño</t>
   </si>
@@ -61,13 +61,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,7 +77,42 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>40</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/dano_porcentaje_5.xlsx
+++ b/Resultados/dano_porcentaje_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31" uniqueCount="1">
   <si>
     <t>Porcentaje_de_Daño</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="true"/>
+    <col min="1" max="1" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,22 +77,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">

--- a/Resultados/dano_porcentaje_5.xlsx
+++ b/Resultados/dano_porcentaje_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="37" uniqueCount="1">
   <si>
     <t>Porcentaje_de_Daño</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,12 +77,12 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
